--- a/data/trans_orig/P14C25-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C25-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A6C4C55-AD6E-4BD8-A026-DF073176F7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A960091-D5A2-4401-A01B-6EBD3A9257CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{50F12B18-6306-4B35-932A-0C6C4E814AA7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CB5B681A-1393-4E91-9DC1-13E23CC79A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -83,13 +83,13 @@
     <t>69,67%</t>
   </si>
   <si>
-    <t>17,63%</t>
+    <t>11,01%</t>
   </si>
   <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>30,26%</t>
+    <t>31,91%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,13 +107,13 @@
     <t>30,33%</t>
   </si>
   <si>
-    <t>82,37%</t>
+    <t>88,99%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>69,74%</t>
+    <t>68,09%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -155,12 +155,18 @@
     <t>77,14%</t>
   </si>
   <si>
+    <t>26,52%</t>
+  </si>
+  <si>
     <t>31,08%</t>
   </si>
   <si>
     <t>22,86%</t>
   </si>
   <si>
+    <t>73,48%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
@@ -188,7 +194,7 @@
     <t>85,74%</t>
   </si>
   <si>
-    <t>40,89%</t>
+    <t>40,6%</t>
   </si>
   <si>
     <t>30,24%</t>
@@ -197,7 +203,7 @@
     <t>14,26%</t>
   </si>
   <si>
-    <t>59,11%</t>
+    <t>59,4%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -209,43 +215,43 @@
     <t>16,95%</t>
   </si>
   <si>
-    <t>72,69%</t>
+    <t>71,08%</t>
   </si>
   <si>
     <t>54,74%</t>
   </si>
   <si>
-    <t>14,69%</t>
+    <t>13,82%</t>
   </si>
   <si>
     <t>35,2%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
   </si>
   <si>
     <t>83,05%</t>
   </si>
   <si>
-    <t>27,31%</t>
+    <t>28,92%</t>
   </si>
   <si>
     <t>45,26%</t>
   </si>
   <si>
-    <t>85,31%</t>
+    <t>86,18%</t>
   </si>
   <si>
     <t>64,8%</t>
   </si>
   <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -260,115 +266,109 @@
     <t>24,37%</t>
   </si>
   <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
   </si>
   <si>
     <t>43,54%</t>
   </si>
   <si>
-    <t>71,43%</t>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
   </si>
   <si>
     <t>48,45%</t>
   </si>
   <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
   </si>
   <si>
     <t>41,2%</t>
   </si>
   <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
   </si>
   <si>
     <t>27,18%</t>
   </si>
   <si>
-    <t>68,46%</t>
+    <t>64,99%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>39,59%</t>
+    <t>46,36%</t>
   </si>
   <si>
     <t>59,58%</t>
   </si>
   <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
   </si>
   <si>
     <t>70,41%</t>
   </si>
   <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
   </si>
   <si>
     <t>33,59%</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
   </si>
   <si>
     <t>29,59%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
   </si>
   <si>
     <t>31,59%</t>
   </si>
   <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>22,31%</t>
+    <t>20,95%</t>
   </si>
   <si>
     <t>6,81%</t>
@@ -377,7 +377,7 @@
     <t>3,42%</t>
   </si>
   <si>
-    <t>11,86%</t>
+    <t>11,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -792,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927BDD60-4AAD-4094-A357-06364D7DE8F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB25ACFB-1866-46F6-AE9B-5BEA9462E1C1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1551,7 +1551,7 @@
         <v>38</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -1569,7 +1569,7 @@
         <v>898</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>19</v>
@@ -1599,13 +1599,13 @@
         <v>898</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,7 +1656,7 @@
         <v>20</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,7 +1712,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1742,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -1757,7 +1757,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -1811,7 +1811,7 @@
         <v>20</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
         <v>20</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,7 +1918,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1933,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -1945,7 +1945,7 @@
         <v>2388</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>19</v>
@@ -1960,10 +1960,10 @@
         <v>6224</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>11</v>
@@ -1987,7 +1987,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -1996,7 +1996,7 @@
         <v>1035</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>19</v>
@@ -2011,13 +2011,13 @@
         <v>1035</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,7 +2038,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,7 +2124,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2136,13 +2136,13 @@
         <v>1194</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -2151,10 +2151,10 @@
         <v>3602</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>11</v>
@@ -2166,13 +2166,13 @@
         <v>4796</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,10 +2187,10 @@
         <v>5849</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>11</v>
@@ -2202,13 +2202,13 @@
         <v>2979</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -2217,13 +2217,13 @@
         <v>8827</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,7 +2244,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>20</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,7 +2330,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2342,13 +2342,13 @@
         <v>1933</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -2357,10 +2357,10 @@
         <v>4217</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>11</v>
@@ -2372,13 +2372,13 @@
         <v>6151</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,13 +2393,13 @@
         <v>3843</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -2408,13 +2408,13 @@
         <v>1977</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M33" s="7">
         <v>6</v>
@@ -2423,13 +2423,13 @@
         <v>5820</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,13 +2444,13 @@
         <v>2156</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>20</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -2474,13 +2474,13 @@
         <v>2155</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2548,13 @@
         <v>18786</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H36" s="7">
         <v>20</v>
@@ -2563,13 +2563,13 @@
         <v>22179</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M36" s="7">
         <v>39</v>
@@ -2578,7 +2578,7 @@
         <v>40965</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>98</v>

--- a/data/trans_orig/P14C25-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C25-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A960091-D5A2-4401-A01B-6EBD3A9257CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C6738D-DF2F-46BB-AD46-87A2F0D33F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CB5B681A-1393-4E91-9DC1-13E23CC79A2E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{05194CF8-9ADD-4EA2-87F9-7A8CEA560171}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="115">
-  <si>
-    <t>Población según el tiempo de diagnóstico del otros problemas mentales en 2015 (Tasa respuesta: 0,88%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="118">
+  <si>
+    <t>Población según el tiempo de diagnóstico del otros problemas mentales en 2016 (Tasa respuesta: 0,88%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,292 +83,301 @@
     <t>69,67%</t>
   </si>
   <si>
-    <t>11,01%</t>
+    <t>10,84%</t>
   </si>
   <si>
     <t>82,12%</t>
   </si>
   <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>De 1 a 4 años</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>Ultimos 12 meses</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
     <t>31,91%</t>
   </si>
   <si>
-    <t>De 1 a 4 años</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>Ultimos 12 meses</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
+    <t>81,8%</t>
   </si>
   <si>
     <t>41,2%</t>
   </si>
   <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
   </si>
   <si>
     <t>27,18%</t>
   </si>
   <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>33,59%</t>
   </si>
   <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
   </si>
   <si>
     <t>29,59%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
   </si>
   <si>
     <t>31,59%</t>
   </si>
   <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>20,95%</t>
+    <t>23,01%</t>
   </si>
   <si>
     <t>6,81%</t>
@@ -377,7 +386,7 @@
     <t>3,42%</t>
   </si>
   <si>
-    <t>11,88%</t>
+    <t>10,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -792,7 +801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB25ACFB-1866-46F6-AE9B-5BEA9462E1C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449172AD-3CFC-4502-9427-49379434D569}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2357,10 +2366,10 @@
         <v>4217</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>11</v>
@@ -2372,13 +2381,13 @@
         <v>6151</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,13 +2402,13 @@
         <v>3843</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -2408,13 +2417,13 @@
         <v>1977</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M33" s="7">
         <v>6</v>
@@ -2423,13 +2432,13 @@
         <v>5820</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,13 +2453,13 @@
         <v>2156</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2474,13 +2483,13 @@
         <v>2155</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2557,13 @@
         <v>18786</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H36" s="7">
         <v>20</v>
@@ -2563,13 +2572,13 @@
         <v>22179</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M36" s="7">
         <v>39</v>
@@ -2578,13 +2587,13 @@
         <v>40965</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,13 +2608,13 @@
         <v>10590</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -2614,13 +2623,13 @@
         <v>9321</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M37" s="7">
         <v>17</v>
@@ -2629,13 +2638,13 @@
         <v>19911</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,13 +2659,13 @@
         <v>2155</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -2671,7 +2680,7 @@
         <v>20</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -2680,13 +2689,13 @@
         <v>2155</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,7 +2751,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
